--- a/biology/Médecine/François-Pierre_Chaumeton/François-Pierre_Chaumeton.xlsx
+++ b/biology/Médecine/François-Pierre_Chaumeton/François-Pierre_Chaumeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Pierre_Chaumeton</t>
+          <t>François-Pierre_Chaumeton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Pierre Chaumeton est un médecin et un botaniste français, né le 20 septembre 1775 à Chouzé-sur-Loire et mort le 10 août 1819 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Pierre_Chaumeton</t>
+          <t>François-Pierre_Chaumeton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est un chirurgien peu fortuné. Chaumeton vient à Paris étudier la médecine et se passionne pour l’histoire naturelle. Il devient chirurgien militaire mais ne supportant pas la brutalité de ce métier, il préfère devenir pharmacien au Val-de-Grâce.
 Il visite l’Italie et se passionne pour la littérature antique, notamment grecque. Mais un incendie détruit sa bibliothèque et toutes ses notes. Il devient alors médecin dans l’armée de Hollande et devient docteur en médecine en 1805 à Strasbourg avec une thèse intitulée Essai d'entomologie médicale. Il accompagne alors les troupes en Prusse et en Autriche, mais malade, il doit revenir à Paris.
